--- a/Files/Excel/Aston Martin.xlsx
+++ b/Files/Excel/Aston Martin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93D46EF-44E6-481B-895C-2BCA6A1030D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109DC95B-3B3C-4033-83AD-6DD714E0AE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,73 +20,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Veículos de corrida Aston Martin</t>
-  </si>
-  <si>
     <t>Veículos da Lagonda</t>
   </si>
   <si>
-    <t>Aston Martin DB5</t>
-  </si>
-  <si>
-    <t>Aston Martin DB1</t>
-  </si>
-  <si>
-    <t>Aston Martin DB2</t>
-  </si>
-  <si>
-    <t>Aston Martin DB4</t>
-  </si>
-  <si>
-    <t>Aston Martin DB7</t>
-  </si>
-  <si>
-    <t>Aston Martin DB9</t>
-  </si>
-  <si>
-    <t>Aston Martin DBS V12</t>
-  </si>
-  <si>
-    <t>Aston Martin DBX</t>
-  </si>
-  <si>
-    <t>Aston Martin Lagonda</t>
-  </si>
-  <si>
-    <t>Aston Martin Lagonda Concept</t>
-  </si>
-  <si>
-    <t>Aston Martin One-77</t>
-  </si>
-  <si>
-    <t>Aston Martin Rapide</t>
-  </si>
-  <si>
-    <t>Aston Martin V12 Vantage</t>
-  </si>
-  <si>
-    <t>Aston Martin Vanquish</t>
-  </si>
-  <si>
-    <t>Aston Martin Virage</t>
-  </si>
-  <si>
     <t>marca</t>
   </si>
   <si>
-    <t>Aston Martin Vantage</t>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Veículos de corrida</t>
+  </si>
+  <si>
+    <t>DB5</t>
+  </si>
+  <si>
+    <t>DB1</t>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t>DB4</t>
+  </si>
+  <si>
+    <t>DB7</t>
+  </si>
+  <si>
+    <t>DB9</t>
+  </si>
+  <si>
+    <t>DBX</t>
+  </si>
+  <si>
+    <t>DBS V</t>
+  </si>
+  <si>
+    <t>One-</t>
+  </si>
+  <si>
+    <t>Rapide</t>
+  </si>
+  <si>
+    <t>Vantage</t>
+  </si>
+  <si>
+    <t>Vanquish</t>
+  </si>
+  <si>
+    <t>Virage</t>
+  </si>
+  <si>
+    <t>Aston Martin</t>
+  </si>
+  <si>
+    <t>Vantage V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +98,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,11 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,164 +451,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
